--- a/code/random_forest-outfiles/RFECV select 7 from 15 out of 16 - 140 estimators/RFECV select 7 from 15 out of 16 - 140 estimators.xlsx
+++ b/code/random_forest-outfiles/RFECV select 7 from 15 out of 16 - 140 estimators/RFECV select 7 from 15 out of 16 - 140 estimators.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 7 from 15 out of 16 - 140 estimators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FD6D8-FA59-4BB9-9F34-5E1802FEB416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADDF586-ECD5-4915-B24D-8EC5CEB9E5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFECV_RF_2021.04.24-15.25.38" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,54 +105,6 @@
     <t>features</t>
   </si>
   <si>
-    <t>ALAND_ATOTAL_ratio_ranking</t>
-  </si>
-  <si>
-    <t>AQI_ranking</t>
-  </si>
-  <si>
-    <t>GEOID_ranking</t>
-  </si>
-  <si>
-    <t>NPP_g_m-2_ranking</t>
-  </si>
-  <si>
-    <t>PDSI_ranking</t>
-  </si>
-  <si>
-    <t>Rh_g_m-2_ranking</t>
-  </si>
-  <si>
-    <t>SP01_ranking</t>
-  </si>
-  <si>
-    <t>STATEFP_ranking</t>
-  </si>
-  <si>
-    <t>median_inc_ranking</t>
-  </si>
-  <si>
-    <t>month_ranking</t>
-  </si>
-  <si>
-    <t>months_from_start_ranking</t>
-  </si>
-  <si>
-    <t>pm25_ug_m-3_ranking</t>
-  </si>
-  <si>
-    <t>popuDensity_ALAND_km2_ranking</t>
-  </si>
-  <si>
-    <t>precip_in_ranking</t>
-  </si>
-  <si>
-    <t>temp_F_ranking</t>
-  </si>
-  <si>
-    <t>year_ranking</t>
-  </si>
-  <si>
     <t>{'max_samples': 0.1, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 140}</t>
   </si>
   <si>
@@ -194,6 +157,54 @@
   </si>
   <si>
     <t>since starts 2000-01</t>
+  </si>
+  <si>
+    <t>ALAND_ATOTAL_ratio</t>
+  </si>
+  <si>
+    <t>AQI</t>
+  </si>
+  <si>
+    <t>GEOID</t>
+  </si>
+  <si>
+    <t>NPP_g_m-2</t>
+  </si>
+  <si>
+    <t>PDSI</t>
+  </si>
+  <si>
+    <t>Rh_g_m-2</t>
+  </si>
+  <si>
+    <t>SP01</t>
+  </si>
+  <si>
+    <t>STATEFP</t>
+  </si>
+  <si>
+    <t>median_inc</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>months_from_start</t>
+  </si>
+  <si>
+    <t>pm25_ug_m-3</t>
+  </si>
+  <si>
+    <t>popuDensity_ALAND_km2</t>
+  </si>
+  <si>
+    <t>precip_in</t>
+  </si>
+  <si>
+    <t>temp_F</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -737,6 +748,968 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Ranking from RFECV, w/o lags</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RFECV_RF_2021.04.24-15.25.38'!$Y$1:$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ALAND_ATOTAL_ratio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AQI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GEOID</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NPP_g_m-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PDSI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rh_g_m-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SP01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>STATEFP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>median_inc</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>month</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>months_from_start</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pm25_ug_m-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>popuDensity_ALAND_km2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>precip_in</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>temp_F</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.24-15.25.38'!$Y$17:$AN$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.416666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1BD-4673-B094-BC7B4E12DD94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1274696863"/>
+        <c:axId val="1274693951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1274696863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274693951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1274693951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274696863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C61AC51-AF40-42DC-A056-5D9C9795B736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1036,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView tabSelected="1" topLeftCell="O13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,52 +2092,52 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AO1">
         <v>1</v>
@@ -1196,16 +2169,16 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>54.681213810000003</v>
+        <v>54.248479799999998</v>
       </c>
       <c r="B2">
-        <v>0.64421500799999998</v>
+        <v>0.49977799000000001</v>
       </c>
       <c r="C2">
-        <v>1.735247612</v>
+        <v>1.6768941159999999</v>
       </c>
       <c r="D2">
-        <v>0.13664879399999999</v>
+        <v>0.19105818299999999</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -1220,67 +2193,67 @@
         <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>-0.30407176000000002</v>
+        <v>-0.30403044499999998</v>
       </c>
       <c r="K2">
-        <v>4.1318489999999999E-3</v>
+        <v>4.0968130000000004E-3</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>-0.58356473200000003</v>
+        <v>-0.58343869699999995</v>
       </c>
       <c r="N2">
-        <v>3.8580149000000001E-2</v>
+        <v>3.8564551000000002E-2</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.713756693</v>
+        <v>0.71381786300000005</v>
       </c>
       <c r="Q2">
-        <v>1.2941802000000001E-2</v>
+        <v>1.2936293E-2</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.71368719700000005</v>
+        <v>0.71374890499999999</v>
       </c>
       <c r="T2">
-        <v>1.2905623E-2</v>
+        <v>1.2899921999999999E-2</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.71383843800000002</v>
+        <v>0.71365986699999995</v>
       </c>
       <c r="W2">
         <v>7</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="Y2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="Z2">
+        <v>8</v>
       </c>
       <c r="AA2">
         <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
       </c>
       <c r="AC2">
         <v>4</v>
       </c>
       <c r="AD2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1310,48 +2283,48 @@
         <v>1</v>
       </c>
       <c r="AN2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2">
-        <v>0.71375746200000001</v>
+        <v>0.71360184000000004</v>
       </c>
       <c r="AP2">
-        <v>0.70899121300000001</v>
+        <v>0.70847850700000004</v>
       </c>
       <c r="AQ2">
-        <v>0.70440245899999998</v>
+        <v>0.70403578600000005</v>
       </c>
       <c r="AR2">
-        <v>0.70289278399999999</v>
+        <v>0.70248093599999994</v>
       </c>
       <c r="AS2">
-        <v>0.70276935100000004</v>
+        <v>0.70195523900000001</v>
       </c>
       <c r="AT2">
-        <v>0.69974022499999999</v>
+        <v>0.70168620299999995</v>
       </c>
       <c r="AU2">
-        <v>0.69981310399999996</v>
+        <v>0.69953121100000004</v>
       </c>
       <c r="AV2">
-        <v>0.69928479200000004</v>
+        <v>0.69867334299999995</v>
       </c>
       <c r="AW2">
-        <v>0.69788028700000004</v>
+        <v>0.69773772700000003</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>54.42749336</v>
+        <v>55.268163280000003</v>
       </c>
       <c r="B3">
-        <v>1.1005557749999999</v>
+        <v>1.1343574860000001</v>
       </c>
       <c r="C3">
-        <v>1.692382979</v>
+        <v>1.771478224</v>
       </c>
       <c r="D3">
-        <v>0.14426482299999999</v>
+        <v>0.111617666</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -1366,55 +2339,52 @@
         <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>-0.30403993600000001</v>
+        <v>-0.30407672499999999</v>
       </c>
       <c r="K3">
-        <v>4.1074550000000003E-3</v>
+        <v>4.1183820000000003E-3</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>-0.58356327299999999</v>
+        <v>-0.58350200299999999</v>
       </c>
       <c r="N3">
-        <v>3.8588012999999997E-2</v>
+        <v>3.8634849999999998E-2</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>0.71375656399999998</v>
+        <v>0.71378852800000003</v>
       </c>
       <c r="Q3">
-        <v>1.2945055E-2</v>
+        <v>1.2966527E-2</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>0.71368795500000004</v>
+        <v>0.713718713</v>
       </c>
       <c r="T3">
-        <v>1.2909492E-2</v>
+        <v>1.2929568000000001E-2</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>0.71376370600000005</v>
+        <v>0.71374750099999995</v>
       </c>
       <c r="W3">
         <v>7</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Z3">
         <v>8</v>
@@ -1458,46 +2428,49 @@
       <c r="AM3">
         <v>1</v>
       </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
       <c r="AO3">
-        <v>0.71374311300000004</v>
+        <v>0.71373136100000001</v>
       </c>
       <c r="AP3">
-        <v>0.70897668199999997</v>
+        <v>0.70875821100000003</v>
       </c>
       <c r="AQ3">
-        <v>0.70439242700000004</v>
+        <v>0.70434985400000005</v>
       </c>
       <c r="AR3">
-        <v>0.70276608600000001</v>
+        <v>0.70283898300000003</v>
       </c>
       <c r="AS3">
-        <v>0.70276138099999996</v>
+        <v>0.70265113899999998</v>
       </c>
       <c r="AT3">
-        <v>0.69964198600000005</v>
+        <v>0.69966731299999996</v>
       </c>
       <c r="AU3">
-        <v>0.69978399899999999</v>
+        <v>0.69751016499999996</v>
       </c>
       <c r="AV3">
-        <v>0.69789933000000004</v>
+        <v>0.69746509999999995</v>
       </c>
       <c r="AW3">
-        <v>0.69602438</v>
+        <v>0.69586083600000004</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>54.585678600000001</v>
+        <v>54.704515309999998</v>
       </c>
       <c r="B4">
-        <v>0.78512867900000005</v>
+        <v>1.9128662249999999</v>
       </c>
       <c r="C4">
-        <v>1.665857148</v>
+        <v>1.6849752899999999</v>
       </c>
       <c r="D4">
-        <v>0.135467594</v>
+        <v>0.20621521900000001</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -1512,58 +2485,58 @@
         <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>-0.30406633900000002</v>
+        <v>-0.30401533600000002</v>
       </c>
       <c r="K4">
-        <v>4.124066E-3</v>
+        <v>4.1155899999999997E-3</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>-0.583567744</v>
+        <v>-0.58350064599999996</v>
       </c>
       <c r="N4">
-        <v>3.8534578E-2</v>
+        <v>3.8539549999999999E-2</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0.71375378300000003</v>
+        <v>0.71378721999999994</v>
       </c>
       <c r="Q4">
-        <v>1.2923194000000001E-2</v>
+        <v>1.2915149000000001E-2</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>0.71368504099999996</v>
+        <v>0.71371851900000005</v>
       </c>
       <c r="T4">
-        <v>1.2887154E-2</v>
+        <v>1.2879292000000001E-2</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>0.71370947200000001</v>
+        <v>0.713718297</v>
       </c>
       <c r="W4">
         <v>7</v>
       </c>
       <c r="X4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -1572,31 +2545,31 @@
         <v>2</v>
       </c>
       <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
         <v>3</v>
       </c>
-      <c r="AD4">
-        <v>5</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>4</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
       <c r="AK4">
         <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>9</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -1605,45 +2578,45 @@
         <v>8</v>
       </c>
       <c r="AO4">
-        <v>0.71373335500000001</v>
+        <v>0.71348041200000001</v>
       </c>
       <c r="AP4">
-        <v>0.70891160099999995</v>
+        <v>0.70891411599999998</v>
       </c>
       <c r="AQ4">
-        <v>0.70613105499999995</v>
+        <v>0.70432315700000003</v>
       </c>
       <c r="AR4">
-        <v>0.703548795</v>
+        <v>0.70284174099999996</v>
       </c>
       <c r="AS4">
-        <v>0.70288729400000005</v>
+        <v>0.70211511999999998</v>
       </c>
       <c r="AT4">
-        <v>0.70272783100000002</v>
+        <v>0.69964686399999998</v>
       </c>
       <c r="AU4">
-        <v>0.700393763</v>
+        <v>0.69984176799999998</v>
       </c>
       <c r="AV4">
-        <v>0.69960403400000004</v>
+        <v>0.69800830000000003</v>
       </c>
       <c r="AW4">
-        <v>0.69845817700000001</v>
+        <v>0.69792519399999997</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>55.268163280000003</v>
+        <v>54.806268930000002</v>
       </c>
       <c r="B5">
-        <v>1.1343574860000001</v>
+        <v>1.0415412829999999</v>
       </c>
       <c r="C5">
-        <v>1.771478224</v>
+        <v>1.743517137</v>
       </c>
       <c r="D5">
-        <v>0.111617666</v>
+        <v>0.15246247800000001</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -1658,52 +2631,55 @@
         <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>-0.30407672499999999</v>
+        <v>-0.30400707199999999</v>
       </c>
       <c r="K5">
-        <v>4.1183820000000003E-3</v>
+        <v>4.087973E-3</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>-0.58350200299999999</v>
+        <v>-0.58355428799999998</v>
       </c>
       <c r="N5">
-        <v>3.8634849999999998E-2</v>
+        <v>3.8495823999999998E-2</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>0.71378852800000003</v>
+        <v>0.71376092999999996</v>
       </c>
       <c r="Q5">
-        <v>1.2966527E-2</v>
+        <v>1.2897372000000001E-2</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>0.713718713</v>
+        <v>0.71369151799999997</v>
       </c>
       <c r="T5">
-        <v>1.2929568000000001E-2</v>
+        <v>1.2860887E-2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>0.71374750099999995</v>
+        <v>0.71374910700000005</v>
       </c>
       <c r="W5">
         <v>7</v>
       </c>
       <c r="X5" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
       </c>
       <c r="Z5">
         <v>8</v>
@@ -1712,31 +2688,28 @@
         <v>1</v>
       </c>
       <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
         <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>4</v>
-      </c>
-      <c r="AD5">
-        <v>6</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>5</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>3</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1751,45 +2724,45 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>0.71373136100000001</v>
+        <v>0.71366317400000001</v>
       </c>
       <c r="AP5">
-        <v>0.70875821100000003</v>
+        <v>0.70881813999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.70434985400000005</v>
+        <v>0.70427126399999995</v>
       </c>
       <c r="AR5">
-        <v>0.70283898300000003</v>
+        <v>0.70372666299999997</v>
       </c>
       <c r="AS5">
-        <v>0.70265113899999998</v>
+        <v>0.70099828500000005</v>
       </c>
       <c r="AT5">
-        <v>0.69966731299999996</v>
+        <v>0.70100421599999996</v>
       </c>
       <c r="AU5">
-        <v>0.69751016499999996</v>
+        <v>0.69872132799999997</v>
       </c>
       <c r="AV5">
-        <v>0.69746509999999995</v>
+        <v>0.69750458699999995</v>
       </c>
       <c r="AW5">
-        <v>0.69586083600000004</v>
+        <v>0.69688693599999996</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>54.806268930000002</v>
+        <v>54.42749336</v>
       </c>
       <c r="B6">
-        <v>1.0415412829999999</v>
+        <v>1.1005557749999999</v>
       </c>
       <c r="C6">
-        <v>1.743517137</v>
+        <v>1.692382979</v>
       </c>
       <c r="D6">
-        <v>0.15246247800000001</v>
+        <v>0.14426482299999999</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1804,55 +2777,55 @@
         <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J6">
-        <v>-0.30400707199999999</v>
+        <v>-0.30403993600000001</v>
       </c>
       <c r="K6">
-        <v>4.087973E-3</v>
+        <v>4.1074550000000003E-3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>-0.58355428799999998</v>
+        <v>-0.58356327299999999</v>
       </c>
       <c r="N6">
-        <v>3.8495823999999998E-2</v>
+        <v>3.8588012999999997E-2</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>0.71376092999999996</v>
+        <v>0.71375656399999998</v>
       </c>
       <c r="Q6">
-        <v>1.2897372000000001E-2</v>
+        <v>1.2945055E-2</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>0.71369151799999997</v>
+        <v>0.71368795500000004</v>
       </c>
       <c r="T6">
-        <v>1.2860887E-2</v>
+        <v>1.2909492E-2</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>0.71374910700000005</v>
+        <v>0.71376370600000005</v>
       </c>
       <c r="W6">
         <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Y6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z6">
         <v>8</v>
@@ -1861,28 +2834,31 @@
         <v>1</v>
       </c>
       <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>5</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
         <v>3</v>
-      </c>
-      <c r="AD6">
-        <v>5</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>4</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>2</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1893,49 +2869,46 @@
       <c r="AM6">
         <v>1</v>
       </c>
-      <c r="AN6">
-        <v>7</v>
-      </c>
       <c r="AO6">
-        <v>0.71366317400000001</v>
+        <v>0.71374311300000004</v>
       </c>
       <c r="AP6">
-        <v>0.70881813999999999</v>
+        <v>0.70897668199999997</v>
       </c>
       <c r="AQ6">
-        <v>0.70427126399999995</v>
+        <v>0.70439242700000004</v>
       </c>
       <c r="AR6">
-        <v>0.70372666299999997</v>
+        <v>0.70276608600000001</v>
       </c>
       <c r="AS6">
-        <v>0.70099828500000005</v>
+        <v>0.70276138099999996</v>
       </c>
       <c r="AT6">
-        <v>0.70100421599999996</v>
+        <v>0.69964198600000005</v>
       </c>
       <c r="AU6">
-        <v>0.69872132799999997</v>
+        <v>0.69978399899999999</v>
       </c>
       <c r="AV6">
-        <v>0.69750458699999995</v>
+        <v>0.69789933000000004</v>
       </c>
       <c r="AW6">
-        <v>0.69688693599999996</v>
+        <v>0.69602438</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>54.248479799999998</v>
+        <v>54.681213810000003</v>
       </c>
       <c r="B7">
-        <v>0.49977799000000001</v>
+        <v>0.64421500799999998</v>
       </c>
       <c r="C7">
-        <v>1.6768941159999999</v>
+        <v>1.735247612</v>
       </c>
       <c r="D7">
-        <v>0.19105818299999999</v>
+        <v>0.13664879399999999</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1950,67 +2923,67 @@
         <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J7">
-        <v>-0.30403044499999998</v>
+        <v>-0.30407176000000002</v>
       </c>
       <c r="K7">
-        <v>4.0968130000000004E-3</v>
+        <v>4.1318489999999999E-3</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>-0.58343869699999995</v>
+        <v>-0.58356473200000003</v>
       </c>
       <c r="N7">
-        <v>3.8564551000000002E-2</v>
+        <v>3.8580149000000001E-2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>0.71381786300000005</v>
+        <v>0.713756693</v>
       </c>
       <c r="Q7">
-        <v>1.2936293E-2</v>
+        <v>1.2941802000000001E-2</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>0.71374890499999999</v>
+        <v>0.71368719700000005</v>
       </c>
       <c r="T7">
-        <v>1.2899921999999999E-2</v>
+        <v>1.2905623E-2</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>0.71365986699999995</v>
+        <v>0.71383843800000002</v>
       </c>
       <c r="W7">
         <v>7</v>
       </c>
       <c r="X7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Y7">
-        <v>6</v>
-      </c>
-      <c r="Z7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA7">
         <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>4</v>
       </c>
       <c r="AD7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -2040,48 +3013,48 @@
         <v>1</v>
       </c>
       <c r="AN7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO7">
-        <v>0.71360184000000004</v>
+        <v>0.71375746200000001</v>
       </c>
       <c r="AP7">
-        <v>0.70847850700000004</v>
+        <v>0.70899121300000001</v>
       </c>
       <c r="AQ7">
-        <v>0.70403578600000005</v>
+        <v>0.70440245899999998</v>
       </c>
       <c r="AR7">
-        <v>0.70248093599999994</v>
+        <v>0.70289278399999999</v>
       </c>
       <c r="AS7">
-        <v>0.70195523900000001</v>
+        <v>0.70276935100000004</v>
       </c>
       <c r="AT7">
-        <v>0.70168620299999995</v>
+        <v>0.69974022499999999</v>
       </c>
       <c r="AU7">
-        <v>0.69953121100000004</v>
+        <v>0.69981310399999996</v>
       </c>
       <c r="AV7">
-        <v>0.69867334299999995</v>
+        <v>0.69928479200000004</v>
       </c>
       <c r="AW7">
-        <v>0.69773772700000003</v>
+        <v>0.69788028700000004</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>54.704515309999998</v>
+        <v>54.856973289999999</v>
       </c>
       <c r="B8">
-        <v>1.9128662249999999</v>
+        <v>1.5030945229999999</v>
       </c>
       <c r="C8">
-        <v>1.6849752899999999</v>
+        <v>1.6416132210000001</v>
       </c>
       <c r="D8">
-        <v>0.20621521900000001</v>
+        <v>0.18260816999999999</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -2096,70 +3069,70 @@
         <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J8">
-        <v>-0.30401533600000002</v>
+        <v>-0.30408491500000001</v>
       </c>
       <c r="K8">
-        <v>4.1155899999999997E-3</v>
+        <v>4.1200680000000002E-3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>-0.58350064599999996</v>
+        <v>-0.58356706899999999</v>
       </c>
       <c r="N8">
-        <v>3.8539549999999999E-2</v>
+        <v>3.8549202999999997E-2</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>0.71378721999999994</v>
+        <v>0.71375538999999999</v>
       </c>
       <c r="Q8">
-        <v>1.2915149000000001E-2</v>
+        <v>1.2923507000000001E-2</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>0.71371851900000005</v>
+        <v>0.71368587900000002</v>
       </c>
       <c r="T8">
-        <v>1.2879292000000001E-2</v>
+        <v>1.2887050000000001E-2</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>0.713718297</v>
+        <v>0.71378556100000001</v>
       </c>
       <c r="W8">
         <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>4</v>
       </c>
       <c r="AD8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2167,9 +3140,6 @@
       <c r="AF8">
         <v>1</v>
       </c>
-      <c r="AG8">
-        <v>5</v>
-      </c>
       <c r="AH8">
         <v>1</v>
       </c>
@@ -2177,57 +3147,60 @@
         <v>1</v>
       </c>
       <c r="AJ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
+      <c r="AL8">
+        <v>9</v>
+      </c>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AN8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8">
-        <v>0.71348041200000001</v>
+        <v>0.71333530499999998</v>
       </c>
       <c r="AP8">
-        <v>0.70891411599999998</v>
+        <v>0.708631609</v>
       </c>
       <c r="AQ8">
-        <v>0.70432315700000003</v>
+        <v>0.70446821199999998</v>
       </c>
       <c r="AR8">
-        <v>0.70284174099999996</v>
+        <v>0.70258365199999995</v>
       </c>
       <c r="AS8">
-        <v>0.70211511999999998</v>
+        <v>0.69908182699999999</v>
       </c>
       <c r="AT8">
-        <v>0.69964686399999998</v>
+        <v>0.69991696199999998</v>
       </c>
       <c r="AU8">
-        <v>0.69984176799999998</v>
+        <v>0.69770829599999995</v>
       </c>
       <c r="AV8">
-        <v>0.69800830000000003</v>
+        <v>0.69625643299999995</v>
       </c>
       <c r="AW8">
-        <v>0.69792519399999997</v>
+        <v>0.69584317399999995</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>67.594421389999994</v>
+        <v>54.585678600000001</v>
       </c>
       <c r="B9">
-        <v>0.327988273</v>
+        <v>0.78512867900000005</v>
       </c>
       <c r="C9">
-        <v>2.0727352620000001</v>
+        <v>1.665857148</v>
       </c>
       <c r="D9">
-        <v>0.33524949399999998</v>
+        <v>0.135467594</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -2242,71 +3215,74 @@
         <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>-0.30475540499999998</v>
+        <v>-0.30406633900000002</v>
       </c>
       <c r="K9">
-        <v>4.3535589999999999E-3</v>
+        <v>4.124066E-3</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>-0.58360418999999997</v>
+        <v>-0.583567744</v>
       </c>
       <c r="N9">
-        <v>3.8629011999999997E-2</v>
+        <v>3.8534578E-2</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P9">
-        <v>0.71373531800000001</v>
+        <v>0.71375378300000003</v>
       </c>
       <c r="Q9">
-        <v>1.2960664E-2</v>
+        <v>1.2923194000000001E-2</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S9">
-        <v>0.71366865300000004</v>
+        <v>0.71368504099999996</v>
       </c>
       <c r="T9">
-        <v>1.2929510999999999E-2</v>
+        <v>1.2887154E-2</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V9">
-        <v>0.71365316999999995</v>
+        <v>0.71370947200000001</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
         <v>7</v>
       </c>
-      <c r="Z9">
-        <v>9</v>
-      </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
         <v>3</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
       </c>
       <c r="AD9">
         <v>5</v>
       </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
       <c r="AF9">
         <v>1</v>
       </c>
@@ -2319,14 +3295,11 @@
       <c r="AI9">
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>2</v>
-      </c>
       <c r="AK9">
         <v>1</v>
       </c>
       <c r="AL9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -2335,31 +3308,31 @@
         <v>8</v>
       </c>
       <c r="AO9">
-        <v>0.71347749299999996</v>
+        <v>0.71373335500000001</v>
       </c>
       <c r="AP9">
-        <v>0.70860783400000005</v>
+        <v>0.70891160099999995</v>
       </c>
       <c r="AQ9">
-        <v>0.70396529200000002</v>
+        <v>0.70613105499999995</v>
       </c>
       <c r="AR9">
-        <v>0.70340644699999999</v>
+        <v>0.703548795</v>
       </c>
       <c r="AS9">
-        <v>0.70031329899999994</v>
+        <v>0.70288729400000005</v>
       </c>
       <c r="AT9">
-        <v>0.69837497000000004</v>
+        <v>0.70272783100000002</v>
       </c>
       <c r="AU9">
-        <v>0.69818380800000002</v>
+        <v>0.700393763</v>
       </c>
       <c r="AV9">
-        <v>0.696379046</v>
+        <v>0.69960403400000004</v>
       </c>
       <c r="AW9">
-        <v>0.69640302399999998</v>
+        <v>0.69845817700000001</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -2388,7 +3361,7 @@
         <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>-0.30405134499999997</v>
@@ -2433,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Y10">
         <v>6</v>
@@ -2510,16 +3483,16 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>54.856973289999999</v>
+        <v>67.594421389999994</v>
       </c>
       <c r="B11">
-        <v>1.5030945229999999</v>
+        <v>0.327988273</v>
       </c>
       <c r="C11">
-        <v>1.6416132210000001</v>
+        <v>2.0727352620000001</v>
       </c>
       <c r="D11">
-        <v>0.18260816999999999</v>
+        <v>0.33524949399999998</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -2534,58 +3507,58 @@
         <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>-0.30408491500000001</v>
+        <v>-0.30475540499999998</v>
       </c>
       <c r="K11">
-        <v>4.1200680000000002E-3</v>
+        <v>4.3535589999999999E-3</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-0.58356706899999999</v>
+        <v>-0.58360418999999997</v>
       </c>
       <c r="N11">
-        <v>3.8549202999999997E-2</v>
+        <v>3.8629011999999997E-2</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>0.71375538999999999</v>
+        <v>0.71373531800000001</v>
       </c>
       <c r="Q11">
-        <v>1.2923507000000001E-2</v>
+        <v>1.2960664E-2</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>0.71368587900000002</v>
+        <v>0.71366865300000004</v>
       </c>
       <c r="T11">
-        <v>1.2887050000000001E-2</v>
+        <v>1.2929510999999999E-2</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>0.71378556100000001</v>
+        <v>0.71365316999999995</v>
       </c>
       <c r="W11">
         <v>7</v>
       </c>
       <c r="X11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Y11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -2594,16 +3567,16 @@
         <v>3</v>
       </c>
       <c r="AC11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>5</v>
       </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
       <c r="AF11">
         <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -2618,40 +3591,40 @@
         <v>1</v>
       </c>
       <c r="AL11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11">
-        <v>0.71333530499999998</v>
+        <v>0.71347749299999996</v>
       </c>
       <c r="AP11">
-        <v>0.708631609</v>
+        <v>0.70860783400000005</v>
       </c>
       <c r="AQ11">
-        <v>0.70446821199999998</v>
+        <v>0.70396529200000002</v>
       </c>
       <c r="AR11">
-        <v>0.70258365199999995</v>
+        <v>0.70340644699999999</v>
       </c>
       <c r="AS11">
-        <v>0.69908182699999999</v>
+        <v>0.70031329899999994</v>
       </c>
       <c r="AT11">
-        <v>0.69991696199999998</v>
+        <v>0.69837497000000004</v>
       </c>
       <c r="AU11">
-        <v>0.69770829599999995</v>
+        <v>0.69818380800000002</v>
       </c>
       <c r="AV11">
-        <v>0.69625643299999995</v>
+        <v>0.696379046</v>
       </c>
       <c r="AW11">
-        <v>0.69584317399999995</v>
+        <v>0.69640302399999998</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -2680,7 +3653,7 @@
         <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J12">
         <v>-0.31156647900000001</v>
@@ -2725,7 +3698,7 @@
         <v>7</v>
       </c>
       <c r="X12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -2826,7 +3799,7 @@
         <v>140</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J13">
         <v>-0.31467234399999999</v>
@@ -2871,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="X13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Y13">
         <v>6</v>
@@ -2972,7 +3945,7 @@
         <v>140</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J14">
         <v>-0.339619703</v>
@@ -3017,7 +3990,7 @@
         <v>7</v>
       </c>
       <c r="X14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="Y14">
         <v>4</v>
@@ -3090,156 +4063,123 @@
       </c>
       <c r="AW14">
         <v>0.67007478600000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="Y15">
-        <v>74</v>
-      </c>
-      <c r="Z15">
-        <v>97</v>
-      </c>
-      <c r="AA15">
-        <v>13</v>
-      </c>
-      <c r="AB15">
-        <v>31</v>
-      </c>
-      <c r="AC15">
-        <v>41</v>
-      </c>
-      <c r="AD15">
-        <v>59</v>
-      </c>
-      <c r="AE15">
-        <v>17</v>
-      </c>
-      <c r="AF15">
-        <v>12</v>
-      </c>
-      <c r="AG15">
-        <v>51</v>
-      </c>
-      <c r="AH15">
-        <v>13</v>
-      </c>
-      <c r="AI15">
-        <v>13</v>
-      </c>
-      <c r="AJ15">
-        <v>25</v>
-      </c>
-      <c r="AK15">
-        <v>12</v>
-      </c>
-      <c r="AL15">
-        <v>104</v>
-      </c>
-      <c r="AM15">
-        <v>12</v>
-      </c>
-      <c r="AN15">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="25:40" x14ac:dyDescent="0.25">
       <c r="Y17">
-        <v>9</v>
+        <f>AVERAGE(Y2:Y14)</f>
+        <v>6.166666666666667</v>
       </c>
       <c r="Z17">
-        <v>11</v>
+        <f>AVERAGE(Z2:Z14)</f>
+        <v>8.0833333333333339</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <f>AVERAGE(AA2:AA14)</f>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>5</v>
+        <f>AVERAGE(AB2:AB14)</f>
+        <v>2.5833333333333335</v>
       </c>
       <c r="AC17">
-        <v>6</v>
+        <f>AVERAGE(AC2:AC14)</f>
+        <v>3.4166666666666665</v>
       </c>
       <c r="AD17">
-        <v>8</v>
+        <f>AVERAGE(AD2:AD14)</f>
+        <v>4.916666666666667</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <f>AVERAGE(AE2:AE14)</f>
+        <v>1.4166666666666667</v>
       </c>
       <c r="AF17">
+        <f>AVERAGE(AF2:AF14)</f>
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>7</v>
+        <f>AVERAGE(AG2:AG14)</f>
+        <v>4.25</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <f>AVERAGE(AH2:AH14)</f>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <f>AVERAGE(AI2:AI14)</f>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>4</v>
+        <f>AVERAGE(AJ2:AJ14)</f>
+        <v>2.0833333333333335</v>
       </c>
       <c r="AK17">
+        <f>AVERAGE(AK2:AK14)</f>
         <v>1</v>
       </c>
       <c r="AL17">
-        <v>12</v>
+        <f>AVERAGE(AL2:AL14)</f>
+        <v>8.6666666666666661</v>
       </c>
       <c r="AM17">
+        <f>AVERAGE(AM2:AM14)</f>
         <v>1</v>
       </c>
       <c r="AN17">
-        <v>10</v>
+        <f>AVERAGE(AN2:AN14)</f>
+        <v>7.416666666666667</v>
       </c>
     </row>
     <row r="19" spans="25:40" x14ac:dyDescent="0.25">
       <c r="Y19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="25:40" x14ac:dyDescent="0.25">
       <c r="AB21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AE21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AJ21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AM21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="25:40" x14ac:dyDescent="0.25">
       <c r="AJ23" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="25:40" x14ac:dyDescent="0.25">
       <c r="AJ24" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AW15">
-    <sortCondition descending="1" ref="AO2:AO15"/>
+    <sortCondition ref="U2:U15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/code/random_forest-outfiles/RFECV select 7 from 15 out of 16 - 140 estimators/RFECV select 7 from 15 out of 16 - 140 estimators.xlsx
+++ b/code/random_forest-outfiles/RFECV select 7 from 15 out of 16 - 140 estimators/RFECV select 7 from 15 out of 16 - 140 estimators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 7 from 15 out of 16 - 140 estimators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADDF586-ECD5-4915-B24D-8EC5CEB9E5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E76712-5DA8-4496-A775-E4880C8A850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,771 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.24-15.25.38'!$AO$1:$AW$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.24-15.25.38'!$AO$17:$AW$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.71055580415384623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70579075792307688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70196709307692318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70094299261538451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69969575930769234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69848587769230741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69697472830769247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69579273392307706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6949755251538462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AF2-4FBC-B13D-F00474B16699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="453971376"/>
+        <c:axId val="453975120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="453971376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453975120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453975120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453971376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFECV_RF_2021.04.24-15.25.38'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_set_r2_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.24-15.25.38'!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.71374890499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.713718713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71371851900000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71369151799999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71368795500000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71368719700000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71368587900000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71368504099999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71367991500000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71366865300000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71141220599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70840199999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68005852600000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.24-15.25.38'!$V$2:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.71365986699999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71374750099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.713718297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71374910700000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71376370600000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71383843800000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71378556100000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71370947200000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71379551200000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71365316999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71113894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70872722799999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67901725400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-908F-4B2D-8ABF-2C5BD195AB9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1872508656"/>
+        <c:axId val="1872489936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1872508656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872489936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1872489936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872508656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1650,6 +2414,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1702,6 +3498,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BB0301-606A-4C2C-9AC7-7893F5B2902C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B8C315-336A-4645-ABA3-C10764FD1D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2009,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM30" sqref="AM30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" activeCellId="1" sqref="V1:V14 S1:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,73 +5933,109 @@
         <v>0.67007478600000003</v>
       </c>
     </row>
-    <row r="17" spans="25:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="25:49" x14ac:dyDescent="0.25">
       <c r="Y17">
-        <f>AVERAGE(Y2:Y14)</f>
+        <f t="shared" ref="Y17:AN17" si="0">AVERAGE(Y2:Y14)</f>
         <v>6.166666666666667</v>
       </c>
       <c r="Z17">
-        <f>AVERAGE(Z2:Z14)</f>
+        <f t="shared" si="0"/>
         <v>8.0833333333333339</v>
       </c>
       <c r="AA17">
-        <f>AVERAGE(AA2:AA14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB17">
-        <f>AVERAGE(AB2:AB14)</f>
+        <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
       </c>
       <c r="AC17">
-        <f>AVERAGE(AC2:AC14)</f>
+        <f t="shared" si="0"/>
         <v>3.4166666666666665</v>
       </c>
       <c r="AD17">
-        <f>AVERAGE(AD2:AD14)</f>
+        <f t="shared" si="0"/>
         <v>4.916666666666667</v>
       </c>
       <c r="AE17">
-        <f>AVERAGE(AE2:AE14)</f>
+        <f t="shared" si="0"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="AF17">
-        <f>AVERAGE(AF2:AF14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG17">
-        <f>AVERAGE(AG2:AG14)</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="AH17">
-        <f>AVERAGE(AH2:AH14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AI17">
-        <f>AVERAGE(AI2:AI14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AJ17">
-        <f>AVERAGE(AJ2:AJ14)</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="AK17">
-        <f>AVERAGE(AK2:AK14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL17">
-        <f>AVERAGE(AL2:AL14)</f>
+        <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="AM17">
-        <f>AVERAGE(AM2:AM14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AN17">
-        <f>AVERAGE(AN2:AN14)</f>
+        <f t="shared" si="0"/>
         <v>7.416666666666667</v>
       </c>
+      <c r="AO17">
+        <f t="shared" ref="AO17:AW17" si="1">AVERAGE(AO2:AO14)</f>
+        <v>0.71055580415384623</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="1"/>
+        <v>0.70579075792307688</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="1"/>
+        <v>0.70196709307692318</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="1"/>
+        <v>0.70094299261538451</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="1"/>
+        <v>0.69969575930769234</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="1"/>
+        <v>0.69848587769230741</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="1"/>
+        <v>0.69697472830769247</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="1"/>
+        <v>0.69579273392307706</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="1"/>
+        <v>0.6949755251538462</v>
+      </c>
     </row>
-    <row r="19" spans="25:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="25:49" x14ac:dyDescent="0.25">
       <c r="Y19" t="s">
         <v>38</v>
       </c>
@@ -4148,7 +6052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="25:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="25:49" x14ac:dyDescent="0.25">
       <c r="AB21" t="s">
         <v>39</v>
       </c>
@@ -4165,12 +6069,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="25:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="25:49" x14ac:dyDescent="0.25">
       <c r="AJ23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="25:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="25:49" x14ac:dyDescent="0.25">
       <c r="AJ24" t="s">
         <v>41</v>
       </c>

--- a/code/random_forest-outfiles/RFECV select 7 from 15 out of 16 - 140 estimators/RFECV select 7 from 15 out of 16 - 140 estimators.xlsx
+++ b/code/random_forest-outfiles/RFECV select 7 from 15 out of 16 - 140 estimators/RFECV select 7 from 15 out of 16 - 140 estimators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 7 from 15 out of 16 - 140 estimators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E76712-5DA8-4496-A775-E4880C8A850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47FD37F-28EB-4461-B218-5B8FCAB449A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3877,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" activeCellId="1" sqref="V1:V14 S1:S14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
